--- a/Planeacion del Trabajo/Giroplas_Matriz de comunicacion.xlsx
+++ b/Planeacion del Trabajo/Giroplas_Matriz de comunicacion.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="18675" windowHeight="11475"/>
+    <workbookView xWindow="360" yWindow="396" windowWidth="16608" windowHeight="9432"/>
   </bookViews>
   <sheets>
     <sheet name="identificación " sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="66">
   <si>
     <t>Involucrado</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/lalovicompu/giroplas </t>
+  </si>
+  <si>
+    <t>Giroplas/Planeacion del Trabajo/Giroplas_Matriz de comunicacion.xlsx</t>
   </si>
 </sst>
 </file>
@@ -630,6 +633,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -656,9 +662,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1074,40 +1077,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="44"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="45"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="46"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="46"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>45</v>
       </c>
@@ -1115,7 +1118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>46</v>
       </c>
@@ -1123,7 +1126,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>48</v>
       </c>
@@ -1131,7 +1134,7 @@
         <v>42145</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>49</v>
       </c>
@@ -1139,27 +1142,27 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="43" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="24"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="43"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="44"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>53</v>
       </c>
@@ -1167,7 +1170,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>31</v>
       </c>
@@ -1175,11 +1178,11 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="28"/>
       <c r="B20" s="28"/>
     </row>
@@ -1191,21 +1194,21 @@
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
         <v>45</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="38">
         <v>1</v>
       </c>
@@ -1233,19 +1236,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
       <c r="D27" s="41"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="41"/>
       <c r="B28" s="41"/>
       <c r="C28" s="41"/>
       <c r="D28" s="41"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -1259,37 +1262,37 @@
       <c r="C32" s="32"/>
       <c r="D32" s="32"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="47"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="47"/>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
       <c r="D34" s="32"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="47"/>
       <c r="B35" s="42"/>
       <c r="C35" s="32"/>
       <c r="D35" s="32"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="47"/>
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
       <c r="D36" s="32"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="48"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
       <c r="D37" s="32"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
         <v>59</v>
       </c>
@@ -1299,7 +1302,7 @@
       <c r="C38" s="32"/>
       <c r="D38" s="32"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
         <v>61</v>
       </c>
@@ -1319,7 +1322,7 @@
       <c r="C40" s="32"/>
       <c r="D40" s="32"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
         <v>49</v>
       </c>
@@ -1329,41 +1332,41 @@
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="52" t="s">
-        <v>64</v>
+      <c r="B42" s="43" t="s">
+        <v>65</v>
       </c>
       <c r="C42" s="32"/>
       <c r="D42" s="32"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="32"/>
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
       <c r="D43" s="32"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="32"/>
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
       <c r="D44" s="32"/>
     </row>
-    <row r="45" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.3">
       <c r="A45" s="33"/>
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
       <c r="D45" s="32"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="35"/>
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
       <c r="D46" s="32"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="31" t="s">
         <v>62</v>
       </c>
@@ -1371,7 +1374,7 @@
       <c r="C47" s="31"/>
       <c r="D47" s="31"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
         <v>45</v>
       </c>
@@ -1385,19 +1388,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="30"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="30"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
       <c r="D50" s="30"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="30"/>
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
@@ -1429,26 +1432,26 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" customWidth="1"/>
+    <col min="18" max="18" width="4.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1470,11 +1473,11 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:22" ht="207" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:22" ht="193.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1521,7 +1524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
@@ -1612,7 +1615,7 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="9"/>
     </row>
-    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>31</v>
       </c>
@@ -1712,7 +1715,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>32</v>
       </c>
@@ -1864,13 +1867,13 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="s">
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="51"/>
-    </row>
-    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="52"/>
+    </row>
+    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1887,7 +1890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>16</v>
       </c>
@@ -1895,7 +1898,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
         <v>39</v>
       </c>
@@ -1903,7 +1906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
         <v>30</v>
       </c>
@@ -1911,7 +1914,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
         <v>28</v>
       </c>
@@ -1919,7 +1922,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
         <v>29</v>
       </c>
@@ -1943,7 +1946,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
